--- a/Project_4/Order Data.xlsx
+++ b/Project_4/Order Data.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>order id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>customer id</t>
   </si>
@@ -397,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -415,21 +412,21 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:8">
@@ -459,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <f>H4*3</f>
@@ -478,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <f>H5*4</f>
@@ -519,8 +516,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <f>H7*2</f>
-        <v>170</v>
+        <f>H7*3</f>
+        <v>255</v>
       </c>
       <c r="H7" s="1">
         <f>31+33+21</f>
@@ -529,18 +526,18 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:8">

--- a/Project_4/Order Data.xlsx
+++ b/Project_4/Order Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="72" windowWidth="21012" windowHeight="6336"/>
+    <workbookView xWindow="288" yWindow="72" windowWidth="21012" windowHeight="6336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Additional" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>customer id</t>
   </si>
@@ -394,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -767,12 +768,375 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <f>93*2</f>
+        <v>186</v>
+      </c>
+      <c r="H3" s="1">
+        <f>35+38+20</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <f>H4*3</f>
+        <v>276</v>
+      </c>
+      <c r="H4" s="1">
+        <f>31+39+22</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <f>H5*4</f>
+        <v>380</v>
+      </c>
+      <c r="H5" s="1">
+        <f>36+37+22</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f>H6*2</f>
+        <v>174</v>
+      </c>
+      <c r="H6" s="1">
+        <f>32+33+22</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <f>H7*3</f>
+        <v>255</v>
+      </c>
+      <c r="H7" s="1">
+        <f>31+33+21</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="2">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="2">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="2">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="2">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -787,4 +1151,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>